--- a/tests/Form Import No Rekening.xlsx
+++ b/tests/Form Import No Rekening.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Nama Bank</t>
   </si>
@@ -35,16 +35,78 @@
     <t>Nomor Rekening</t>
   </si>
   <si>
-    <t>User ID</t>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>20220001J</t>
+  </si>
+  <si>
+    <t>Admin HRD</t>
+  </si>
+  <si>
+    <t>20221111J</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>20220002J</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>20220003J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Administrator </t>
+  </si>
+  <si>
+    <t>Administrator HRD</t>
+  </si>
+  <si>
+    <t>Manager Approver</t>
+  </si>
+  <si>
+    <t>User Pegawai</t>
+  </si>
+  <si>
+    <t>PANIN</t>
+  </si>
+  <si>
+    <t>PERMATA</t>
+  </si>
+  <si>
+    <t>OCBC</t>
+  </si>
+  <si>
+    <t>DANAMON</t>
+  </si>
+  <si>
+    <t>111-423-45654</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -59,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,12 +129,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,32 +439,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/Form Import No Rekening.xlsx
+++ b/tests/Form Import No Rekening.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Nama Bank</t>
   </si>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -158,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +478,7 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -492,7 +495,7 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -509,7 +512,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -526,7 +529,7 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -534,6 +537,74 @@
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>982374982374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6723942389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>932402093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8792347234</v>
       </c>
     </row>
   </sheetData>
